--- a/src/Materi Line Bot.xlsx
+++ b/src/Materi Line Bot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2d61\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\OneDrive - Institut Teknologi Bandung\GitHub\Milestone02_K17\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{704F0B45-97D7-4E22-A645-23C984E0A2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB016D0-1FAD-454A-9FA3-93EDD7769C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{C2E20BCD-CD07-40BB-B837-7A90CC3511EF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C2E20BCD-CD07-40BB-B837-7A90CC3511EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,32 +102,32 @@
     <t>benci, membenci, dibenci</t>
   </si>
   <si>
-    <t>Itu hal umum kok, sangat wajar terjadi antara manusia satu dengan yang lainnya, gapapa. Masih banyak orang yang menyayangi dan menghargaimu, aku pun bisa menjadi teman untukmu dan mau mendengarkan semua ceritamu. Kamu ngga sendiri kok, tetep semangat ya!</t>
-  </si>
-  <si>
     <t>bingung</t>
   </si>
   <si>
-    <t>Haloo, kalo kamu bingung mungkin bisa dipertimbangin dulu positif dan negatif dari apa yang menjadi pilihanmu. Nanti pasti keliatan kok mana yang lebih worth it buat jadi keputusanmu. Kalau kamu mau minta saran lebih lanjut, bisa hubungi admin kami ya!</t>
-  </si>
-  <si>
     <t>mati</t>
   </si>
   <si>
-    <t>Hey, coba deh kamu renungkan dulu, kamu hidup ke dunia pasti punya makna. Ngga sembarangan orang loh bisa dapet kesempatan untuk menikmati dunia. Inget, itu bukan penyelesaian masalah, bisa jadi malah menambah masalah baru kalau kamu melakukannya. Tenangin diri dulu, relax, hadapi dan sertakan kekuatan alam untuk mendukungmu keluar dari masalah itu. Yuk semangat, aku yakin kamu pasti bisa!</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>Admin kami akan segera menghubungimu untuk menginfokan lebih lanjut tentang fitur dalam bot ini</t>
+  </si>
+  <si>
+    <t>Itu hal umum kok, sangat wajar terjadi antara manusia satu dengan yang lainnya, gapapa. Masih banyak orang yang menyayangi dan menghargaimu, aku pun bisa menjadi teman untukmu dan mau mendengarkan semua ceritamu. Kamu ngga sendiri kok, tetep semangat ya!     https://www.merdeka.com/sumut/22-cara-mencintai-diri-sendiri-untuk-hidup-yang-lebih-bahagia-terapkan-ini-kln.html</t>
+  </si>
+  <si>
+    <t>Hey, coba deh kamu renungkan dulu, kamu hidup ke dunia pasti punya makna. Ngga sembarangan orang loh bisa dapet kesempatan untuk menikmati dunia. Inget, itu bukan penyelesaian masalah, bisa jadi malah menambah masalah baru kalau kamu melakukannya. Tenangin diri dulu, relax, hadapi dan sertakan kekuatan alam untuk mendukungmu keluar dari masalah itu. Yuk semangat, aku yakin kamu pasti bisa!     https://www.aswata.co.id/id/berita/info-tips/614-agar-selalu-bersyukur-dalam-hidup-dengan-4-cara-sederhana-ini</t>
+  </si>
+  <si>
+    <t>Haloo, kalo kamu bingung mungkin bisa dipertimbangin dulu positif dan negatif dari apa yang menjadi pilihanmu. Nanti pasti keliatan kok mana yang lebih worth it buat jadi keputusanmu. Kalau kamu mau minta saran lebih lanjut, bisa hubungi admin kami ya!     https://hellosehat.com/mental/mental-lainnya/tips-membuat-keputusan/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,20 +548,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5E28D7-2897-4439-B15B-53E18F788545}">
-  <dimension ref="A2:C23"/>
+  <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+    <col min="3" max="3" width="44.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30">
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -581,7 +581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="180">
+    <row r="4" spans="1:3" ht="174" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="120">
+    <row r="5" spans="1:3" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -599,7 +599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="75">
+    <row r="6" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -608,7 +608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60">
+    <row r="7" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -617,7 +617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="135" customHeight="1">
+    <row r="8" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -626,7 +626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="75">
+    <row r="9" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -635,7 +635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="75">
+    <row r="10" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
@@ -644,7 +644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="105">
+    <row r="11" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
@@ -653,73 +653,72 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="105">
+    <row r="12" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="90">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="116" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="150">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="174" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" ht="15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="23" spans="1:3" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
